--- a/docs/odh/shr-core-AnatomicalDirection-model.xlsx
+++ b/docs/odh/shr-core-AnatomicalDirection-model.xlsx
@@ -153,7 +153,7 @@
     <t>preferred</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/odh/shr/core/vs/AnatomicalDirectionVS</t>
+    <t>http://hl7.org/fhir/us/odh/ValueSet/shr-core-AnatomicalDirectionVS</t>
   </si>
 </sst>
 </file>
@@ -302,7 +302,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ3"/>
+  <dimension ref="A1:AI3"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -335,7 +335,7 @@
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.9140625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="57.125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="62.8203125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
